--- a/Vjezbe/PS_predavanja_vjezbe_4.xlsx
+++ b/Vjezbe/PS_predavanja_vjezbe_4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Documents\GitHub\Primijenjena-statistika\Vjezbe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B92D5C-357F-41E4-896D-2414927F2D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4799CF-7D30-482B-A2F9-2F3CC4FF5B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -253,12 +253,6 @@
     <t>Normalna srednja vrijednost (saberemo sve I podijelimo sa brojem sabranih)</t>
   </si>
   <si>
-    <t>Ona vrijednost koja se doslovno nalazi na sredini uzorka.Ukoliko je to paran broj onda je pola, dok ukoliko je neparan</t>
-  </si>
-  <si>
-    <t>broj onda se saberu dvije vrijednosti I podijele sa 2 kako bi se srednja dobila. Npr 3=1+2/2=srednja vr.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Ima najvise smisla kada se neke vrijednosti dijele. Postoji ugradjena funkcija koja se koristi: </t>
     </r>
@@ -353,6 +347,12 @@
   <si>
     <t>RB PODATKA RACUNAMO NA  NACIN 87/100*PERCENTIL</t>
   </si>
+  <si>
+    <t>Ona vrijednost koja se doslovno nalazi na sredini uzorka.Ukoliko je to neparan broj onda je onaj koji se nalazi na sredini, dok ukoliko je paran</t>
+  </si>
+  <si>
+    <t>broj onda se saberu dvije vrijednosti I podijele sa 2 kako bi se srednja dobila. Npr 4=2+3/2=srednja vr.</t>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -494,11 +494,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -541,20 +572,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -568,8 +587,29 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,7 +1298,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PSV202122.xlsx]Sortiranje!PivotTable1</c:name>
+    <c:name>[PS_predavanja_vjezbe_4.xlsx]Sortiranje!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1337,8 +1377,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1478,6 +1517,42 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1515,6 +1590,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F96F-4F04-833A-CCF988F462B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1534,6 +1614,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F96F-4F04-833A-CCF988F462B0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1787,7 +1872,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PSV202122.xlsx]Sortiranje!PivotTable4</c:name>
+    <c:name>[PS_predavanja_vjezbe_4.xlsx]Sortiranje!PivotTable4</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -1867,8 +1952,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1929,6 +2013,60 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1966,6 +2104,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F5D5-49DD-806D-395E94753A4E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1985,6 +2128,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F5D5-49DD-806D-395E94753A4E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2004,6 +2152,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F5D5-49DD-806D-395E94753A4E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2263,7 +2416,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PSV202122.xlsx]Sortiranje!PivotTable5</c:name>
+    <c:name>[PS_predavanja_vjezbe_4.xlsx]Sortiranje!PivotTable5</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -2343,8 +2496,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2409,7 +2561,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2569,6 +2721,24 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2630,6 +2800,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2BD6-4B65-B6C4-2FADC878A3AB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2957,7 +3132,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PSV202122.xlsx]Sortiranje!PivotTable6</c:name>
+    <c:name>[PS_predavanja_vjezbe_4.xlsx]Sortiranje!PivotTable6</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -3036,8 +3211,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3098,6 +3272,42 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3135,6 +3345,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-142E-4844-A36C-B7BD642E43E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3154,6 +3369,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-142E-4844-A36C-B7BD642E43E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -9110,7 +9330,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10CAF5E8-3A83-436A-A61F-ACCE96A220CF}" name="PivotTable6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10CAF5E8-3A83-436A-A61F-ACCE96A220CF}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A46:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0">
@@ -9323,7 +9543,7 @@
   <dataFields count="1">
     <dataField name="Count of IDP" fld="0" subtotal="count" baseField="9" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="6">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -9360,6 +9580,30 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="7" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9374,7 +9618,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C73722C-A18D-4986-9CE3-9F30E4917EF8}" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C73722C-A18D-4986-9CE3-9F30E4917EF8}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A34:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0">
@@ -9590,7 +9834,7 @@
   <dataFields count="1">
     <dataField name="Count of IDP" fld="0" subtotal="count" baseField="9" baseItem="0"/>
   </dataFields>
-  <chartFormats count="5">
+  <chartFormats count="6">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -9642,6 +9886,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9656,7 +9912,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{50721F8B-417E-48E9-9F80-8D8B2D97135F}" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{50721F8B-417E-48E9-9F80-8D8B2D97135F}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A16:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0">
@@ -9865,7 +10121,7 @@
   <dataFields count="1">
     <dataField name="Count of IDP" fld="0" subtotal="count" baseField="9" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="5">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -9884,6 +10140,42 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="3" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9898,7 +10190,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{349FA089-AC90-4BA1-98FF-E7A460405C41}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{349FA089-AC90-4BA1-98FF-E7A460405C41}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0">
@@ -10037,12 +10329,36 @@
   <dataFields count="1">
     <dataField name="Count of IDP" fld="0" subtotal="count" baseField="9" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="3">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -13696,8 +14012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1B15E2-6E9A-42F7-81A5-ABDB987FE26D}">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13745,17 +14061,17 @@
         <v>13</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="26">
         <f>AVERAGE(Podaci!B2:B88)</f>
         <v>62.540229885057471</v>
       </c>
@@ -13800,20 +14116,20 @@
         <v>14.896551724137931</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="28">
+        <v>60</v>
+      </c>
+      <c r="P2" s="24">
         <v>1</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="24">
         <v>1670</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="27">
         <f>MEDIAN(Podaci!B2:B88)</f>
         <v>64</v>
       </c>
@@ -13858,20 +14174,20 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="28">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="28">
+        <v>61</v>
+      </c>
+      <c r="P3" s="24">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="24">
         <v>2672</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="27">
         <f>_xlfn.MODE.SNGL(Podaci!B2:B88)</f>
         <v>68</v>
       </c>
@@ -13915,135 +14231,136 @@
         <f>_xlfn.MODE.SNGL(Podaci!L2:L88)</f>
         <v>7</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="24">
         <v>3</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="24">
         <v>2755.55</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="10">
         <f>HARMEAN(Podaci!D2:D88)</f>
         <v>27.451641676247213</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="24">
         <v>4</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="24">
         <v>2839</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P6" s="28">
+      <c r="P6" s="24">
         <v>5</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="24">
         <v>2839</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P7" s="28">
+      <c r="P7" s="24">
         <v>6</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="24">
         <v>3006</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="P8" s="28">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="P8" s="24">
         <v>7</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="24">
         <v>3006</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P9" s="28">
+      <c r="P9" s="24">
         <v>8</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="24">
         <v>3006</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P10" s="28">
+      <c r="P10" s="24">
         <v>9</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="24">
         <v>3507</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="24"/>
-      <c r="P11" s="28">
+      <c r="B11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="P11" s="24">
         <v>10</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="24">
         <v>3674</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="24"/>
-      <c r="P12" s="28">
+      <c r="C12" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="38"/>
+      <c r="P12" s="24">
         <v>11</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="24">
         <v>4175</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P13" s="28">
+      <c r="P13" s="24">
         <v>12</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="24">
         <v>4509</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P14" s="28">
+      <c r="P14" s="24">
         <v>13</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="24">
         <v>5344</v>
       </c>
       <c r="R14" s="11">
@@ -14054,32 +14371,32 @@
         <f>MEDIAN(Q2:Q14)</f>
         <v>3006</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="T14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="24"/>
-      <c r="P15" s="28">
+      <c r="C15" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="33"/>
+      <c r="P15" s="24">
         <v>14</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="Q15" s="24">
         <v>900000</v>
       </c>
       <c r="R15" s="11">
@@ -14090,36 +14407,36 @@
         <f>MEDIAN(Q2:Q15)</f>
         <v>3006</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="T15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="C17" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
+      <c r="C17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -14161,7 +14478,7 @@
         <v>4.4827586206896548</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -14334,7 +14651,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -14493,14 +14810,14 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G46" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="23" t="s">
         <v>30</v>
       </c>
       <c r="G47" s="4">
@@ -14541,7 +14858,7 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D50" s="16">
         <v>23</v>
@@ -14564,7 +14881,7 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D51" s="16">
         <v>45</v>
@@ -14586,7 +14903,7 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D52" s="16">
         <v>58</v>
@@ -14608,7 +14925,7 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D53" s="16">
         <v>69</v>
@@ -14630,7 +14947,7 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D54" s="16">
         <v>80</v>
@@ -14654,77 +14971,77 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G55" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="23" t="s">
         <v>30</v>
       </c>
       <c r="G56" s="4">
         <f>SUM(_xlfn.ANCHORARRAY(G50))</f>
         <v>87</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="25">
         <f>SUM(H50:H55)</f>
         <v>5428.5</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="33"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C62" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="24"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C62" s="22" t="s">
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C64" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C63" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C64" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14732,10 +15049,10 @@
     <mergeCell ref="C62:I62"/>
     <mergeCell ref="C64:L64"/>
     <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C11:N11"/>
     <mergeCell ref="C12:N12"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="C15:N15"/>
+    <mergeCell ref="B11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14747,7 +15064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D89DE02-21A5-4A15-AC23-276E3F5C143B}">
   <dimension ref="A1:AK49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
@@ -14846,11 +15163,11 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!B$2:B$88,Sortiranje!$L2/100)</f>
         <v>23.86</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!C$2:C$88,Sortiranje!$L2/100)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!D$2:D$88,Sortiranje!$L2/100)</f>
         <v>23</v>
       </c>
@@ -14858,15 +15175,15 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!E$2:E$88,Sortiranje!$L2/100)</f>
         <v>57.62</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!F$2:F$88,Sortiranje!$L2/100)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="34">
+      <c r="R2" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!G$2:G$88,Sortiranje!$L2/100)</f>
         <v>3</v>
       </c>
-      <c r="S2" s="34">
+      <c r="S2" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!H$2:H$88,Sortiranje!$L2/100)</f>
         <v>1</v>
       </c>
@@ -14874,15 +15191,15 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!I$2:I$88,Sortiranje!$L2/100)</f>
         <v>0.12415999999999999</v>
       </c>
-      <c r="U2" s="34">
+      <c r="U2" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!J$2:J$88,Sortiranje!$L2/100)</f>
         <v>1</v>
       </c>
-      <c r="V2" s="34">
+      <c r="V2" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!K$2:K$88,Sortiranje!$L2/100)</f>
         <v>1</v>
       </c>
-      <c r="W2" s="34">
+      <c r="W2" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!L$2:L$88,Sortiranje!$L2/100)</f>
         <v>3</v>
       </c>
@@ -14905,19 +15222,19 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!B$2:B$88,Sortiranje!$L3/100)</f>
         <v>40.299999999999997</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!C$2:C$88,Sortiranje!$L3/100)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!D$2:D$88,Sortiranje!$L3/100)</f>
         <v>25</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!E$2:E$88,Sortiranje!$L3/100)</f>
         <v>68</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!F$2:F$88,Sortiranje!$L3/100)</f>
         <v>1</v>
       </c>
@@ -14925,7 +15242,7 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!G$2:G$88,Sortiranje!$L3/100)</f>
         <v>3.13</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!H$2:H$88,Sortiranje!$L3/100)</f>
         <v>1</v>
       </c>
@@ -14933,15 +15250,15 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!I$2:I$88,Sortiranje!$L3/100)</f>
         <v>0.17409999999999998</v>
       </c>
-      <c r="U3" s="34">
+      <c r="U3" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!J$2:J$88,Sortiranje!$L3/100)</f>
         <v>1</v>
       </c>
-      <c r="V3" s="34">
+      <c r="V3" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!K$2:K$88,Sortiranje!$L3/100)</f>
         <v>2</v>
       </c>
-      <c r="W3" s="34">
+      <c r="W3" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!L$2:L$88,Sortiranje!$L3/100)</f>
         <v>3</v>
       </c>
@@ -14964,19 +15281,19 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!B$2:B$88,Sortiranje!$L4/100)</f>
         <v>44.2</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!C$2:C$88,Sortiranje!$L4/100)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!D$2:D$88,Sortiranje!$L4/100)</f>
         <v>26</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!E$2:E$88,Sortiranje!$L4/100)</f>
         <v>70</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!F$2:F$88,Sortiranje!$L4/100)</f>
         <v>2</v>
       </c>
@@ -14984,7 +15301,7 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!G$2:G$88,Sortiranje!$L4/100)</f>
         <v>3.4</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!H$2:H$88,Sortiranje!$L4/100)</f>
         <v>1</v>
       </c>
@@ -14992,15 +15309,15 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!I$2:I$88,Sortiranje!$L4/100)</f>
         <v>0.19919999999999999</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!J$2:J$88,Sortiranje!$L4/100)</f>
         <v>1</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!K$2:K$88,Sortiranje!$L4/100)</f>
         <v>2</v>
       </c>
-      <c r="W4" s="34">
+      <c r="W4" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!L$2:L$88,Sortiranje!$L4/100)</f>
         <v>4</v>
       </c>
@@ -15013,23 +15330,23 @@
       <c r="L5" s="21">
         <v>25</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!B$2:B$88,Sortiranje!$L5/100)</f>
         <v>54</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!C$2:C$88,Sortiranje!$L5/100)</f>
         <v>1</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!D$2:D$88,Sortiranje!$L5/100)</f>
         <v>26</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!E$2:E$88,Sortiranje!$L5/100)</f>
         <v>80</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!F$2:F$88,Sortiranje!$L5/100)</f>
         <v>3</v>
       </c>
@@ -15037,7 +15354,7 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!G$2:G$88,Sortiranje!$L5/100)</f>
         <v>3.6</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!H$2:H$88,Sortiranje!$L5/100)</f>
         <v>2</v>
       </c>
@@ -15045,15 +15362,15 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!I$2:I$88,Sortiranje!$L5/100)</f>
         <v>0.33800000000000002</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!J$2:J$88,Sortiranje!$L5/100)</f>
         <v>2</v>
       </c>
-      <c r="V5" s="34">
+      <c r="V5" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!K$2:K$88,Sortiranje!$L5/100)</f>
         <v>2</v>
       </c>
-      <c r="W5" s="34">
+      <c r="W5" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!L$2:L$88,Sortiranje!$L5/100)</f>
         <v>6</v>
       </c>
@@ -15066,23 +15383,23 @@
       <c r="L6" s="21">
         <v>50</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!B$2:B$88,Sortiranje!$L6/100)</f>
         <v>64</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!C$2:C$88,Sortiranje!$L6/100)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!D$2:D$88,Sortiranje!$L6/100)</f>
         <v>28</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!E$2:E$88,Sortiranje!$L6/100)</f>
         <v>90</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!F$2:F$88,Sortiranje!$L6/100)</f>
         <v>3</v>
       </c>
@@ -15090,7 +15407,7 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!G$2:G$88,Sortiranje!$L6/100)</f>
         <v>3.9</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!H$2:H$88,Sortiranje!$L6/100)</f>
         <v>2</v>
       </c>
@@ -15098,15 +15415,15 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!I$2:I$88,Sortiranje!$L6/100)</f>
         <v>0.46800000000000003</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!J$2:J$88,Sortiranje!$L6/100)</f>
         <v>2</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!K$2:K$88,Sortiranje!$L6/100)</f>
         <v>2</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!L$2:L$88,Sortiranje!$L6/100)</f>
         <v>9</v>
       </c>
@@ -15119,15 +15436,15 @@
       <c r="L7" s="21">
         <v>75</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!B$2:B$88,Sortiranje!$L7/100)</f>
         <v>71</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!C$2:C$88,Sortiranje!$L7/100)</f>
         <v>2</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!D$2:D$88,Sortiranje!$L7/100)</f>
         <v>29</v>
       </c>
@@ -15135,7 +15452,7 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!E$2:E$88,Sortiranje!$L7/100)</f>
         <v>101.5</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!F$2:F$88,Sortiranje!$L7/100)</f>
         <v>6</v>
       </c>
@@ -15143,7 +15460,7 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!G$2:G$88,Sortiranje!$L7/100)</f>
         <v>4.2</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!H$2:H$88,Sortiranje!$L7/100)</f>
         <v>2</v>
       </c>
@@ -15151,15 +15468,15 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!I$2:I$88,Sortiranje!$L7/100)</f>
         <v>0.56299999999999994</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!J$2:J$88,Sortiranje!$L7/100)</f>
         <v>2</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!K$2:K$88,Sortiranje!$L7/100)</f>
         <v>2</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!L$2:L$88,Sortiranje!$L7/100)</f>
         <v>15</v>
       </c>
@@ -15172,15 +15489,15 @@
       <c r="L8" s="21">
         <v>90</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!B$2:B$88,Sortiranje!$L8/100)</f>
         <v>79</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!C$2:C$88,Sortiranje!$L8/100)</f>
         <v>2</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!D$2:D$88,Sortiranje!$L8/100)</f>
         <v>29</v>
       </c>
@@ -15188,7 +15505,7 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!E$2:E$88,Sortiranje!$L8/100)</f>
         <v>105.4</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!F$2:F$88,Sortiranje!$L8/100)</f>
         <v>10</v>
       </c>
@@ -15196,7 +15513,7 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!G$2:G$88,Sortiranje!$L8/100)</f>
         <v>4.54</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!H$2:H$88,Sortiranje!$L8/100)</f>
         <v>3</v>
       </c>
@@ -15204,11 +15521,11 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!I$2:I$88,Sortiranje!$L8/100)</f>
         <v>0.65239999999999998</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!J$2:J$88,Sortiranje!$L8/100)</f>
         <v>2</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!K$2:K$88,Sortiranje!$L8/100)</f>
         <v>3</v>
       </c>
@@ -15225,15 +15542,15 @@
       <c r="L9" s="21">
         <v>95</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!B$2:B$88,Sortiranje!$L9/100)</f>
         <v>81</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!C$2:C$88,Sortiranje!$L9/100)</f>
         <v>2</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!D$2:D$88,Sortiranje!$L9/100)</f>
         <v>29.5</v>
       </c>
@@ -15241,7 +15558,7 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!E$2:E$88,Sortiranje!$L9/100)</f>
         <v>113.80000000000001</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!F$2:F$88,Sortiranje!$L9/100)</f>
         <v>10</v>
       </c>
@@ -15249,7 +15566,7 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!G$2:G$88,Sortiranje!$L9/100)</f>
         <v>4.87</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!H$2:H$88,Sortiranje!$L9/100)</f>
         <v>3</v>
       </c>
@@ -15257,11 +15574,11 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!I$2:I$88,Sortiranje!$L9/100)</f>
         <v>0.70090000000000008</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!J$2:J$88,Sortiranje!$L9/100)</f>
         <v>2</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!K$2:K$88,Sortiranje!$L9/100)</f>
         <v>3</v>
       </c>
@@ -15282,11 +15599,11 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!B$2:B$88,Sortiranje!$L10/100)</f>
         <v>86.56</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!C$2:C$88,Sortiranje!$L10/100)</f>
         <v>2</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!D$2:D$88,Sortiranje!$L10/100)</f>
         <v>30</v>
       </c>
@@ -15302,7 +15619,7 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!G$2:G$88,Sortiranje!$L10/100)</f>
         <v>5.2700000000000005</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!H$2:H$88,Sortiranje!$L10/100)</f>
         <v>3</v>
       </c>
@@ -15310,11 +15627,11 @@
         <f>_xlfn.PERCENTILE.INC(Podaci!I$2:I$88,Sortiranje!$L10/100)</f>
         <v>0.83618000000000015</v>
       </c>
-      <c r="U10" s="34">
+      <c r="U10" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!J$2:J$88,Sortiranje!$L10/100)</f>
         <v>2</v>
       </c>
-      <c r="V10" s="34">
+      <c r="V10" s="30">
         <f>_xlfn.PERCENTILE.INC(Podaci!K$2:K$88,Sortiranje!$L10/100)</f>
         <v>3</v>
       </c>
@@ -15476,7 +15793,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
@@ -15520,13 +15837,13 @@
       <c r="B19" s="9">
         <v>11</v>
       </c>
-      <c r="K19" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="24"/>
+      <c r="K19" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="33"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -15535,19 +15852,19 @@
       <c r="B20" s="9">
         <v>87</v>
       </c>
-      <c r="K20" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="24"/>
+      <c r="K20" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="33"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="K21" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="24"/>
+      <c r="K21" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -15635,15 +15952,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100422927A4B14B16408CBADB6036948F55" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d789af9294aa31a0283185d196e458ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a74ba223-5325-45eb-8bb6-4a812c960ff8" xmlns:ns3="503f19e8-fb23-4d62-82a3-60e3d6d0a640" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75f3ce3d37ca6185cb11faa8fc51dec8" ns2:_="" ns3:_="">
     <xsd:import namespace="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
@@ -15826,6 +16134,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -15838,14 +16155,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CCE0EB1-C7B2-45F1-9A0D-912041F25CA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624164AF-1CAB-4614-92C6-4EA34D2BE398}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15860,6 +16169,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CCE0EB1-C7B2-45F1-9A0D-912041F25CA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Vjezbe/PS_predavanja_vjezbe_4.xlsx
+++ b/Vjezbe/PS_predavanja_vjezbe_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Documents\GitHub\Primijenjena-statistika\Vjezbe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4799CF-7D30-482B-A2F9-2F3CC4FF5B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7140AF8F-DF74-4EE1-977C-B38F7DB72EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,22 +254,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Ima najvise smisla kada se neke vrijednosti dijele. Postoji ugradjena funkcija koja se koristi: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HARMENIAN</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Sredina koja se najcesce pojavljuje u uzorku. Postoji ugradjena funkcija </t>
     </r>
     <r>
@@ -352,6 +336,22 @@
   </si>
   <si>
     <t>broj onda se saberu dvije vrijednosti I podijele sa 2 kako bi se srednja dobila. Npr 4=2+3/2=srednja vr.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ima najvise smisla kada su neke vrijednosti drasticno vece od drugih (npr.Plata Edina Dzeke) jer se dobije bliza vrijednost realnoj. Postoji ugradjena funkcija koja se koristi: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HARMENIAN</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -599,9 +599,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -610,6 +607,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7472,9 +7472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3524250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>3209925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7490,7 +7490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="885825" y="981075"/>
-          <a:ext cx="3962400" cy="2181225"/>
+          <a:ext cx="3648075" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14013,7 +14013,7 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14061,10 +14061,10 @@
         <v>13</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -14116,7 +14116,7 @@
         <v>14.896551724137931</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P2" s="24">
         <v>1</v>
@@ -14174,7 +14174,7 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P3" s="24">
         <v>2</v>
@@ -14305,7 +14305,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -14327,20 +14327,20 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
+      <c r="C12" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
       <c r="P12" s="24">
         <v>11</v>
       </c>
@@ -14380,7 +14380,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -14416,9 +14416,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="C17" s="34" t="s">
-        <v>42</v>
-      </c>
+      <c r="B17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -14433,10 +14434,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -14478,7 +14479,7 @@
         <v>4.4827586206896548</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -14651,7 +14652,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -14810,7 +14811,7 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G46" s="14">
         <v>0</v>
@@ -14858,7 +14859,7 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="16">
         <v>23</v>
@@ -14881,7 +14882,7 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="16">
         <v>45</v>
@@ -14903,7 +14904,7 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="16">
         <v>58</v>
@@ -14925,7 +14926,7 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="16">
         <v>69</v>
@@ -14947,7 +14948,7 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="16">
         <v>80</v>
@@ -14971,7 +14972,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G55" s="14">
         <v>0</v>
@@ -14992,7 +14993,7 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C60" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
@@ -15009,7 +15010,7 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C62" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
@@ -15020,7 +15021,7 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C63" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -15031,7 +15032,7 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C64" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="34"/>
@@ -15050,9 +15051,9 @@
     <mergeCell ref="C64:L64"/>
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="C12:N12"/>
-    <mergeCell ref="C17:N17"/>
     <mergeCell ref="C15:N15"/>
     <mergeCell ref="B11:N11"/>
+    <mergeCell ref="B17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15792,35 +15793,35 @@
       <c r="B17" s="9">
         <v>21</v>
       </c>
-      <c r="K17" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
+      <c r="K17" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -15838,7 +15839,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -15853,7 +15854,7 @@
         <v>87</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -15861,7 +15862,7 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="K21" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="33"/>
@@ -15952,6 +15953,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a74ba223-5325-45eb-8bb6-4a812c960ff8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100422927A4B14B16408CBADB6036948F55" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d789af9294aa31a0283185d196e458ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a74ba223-5325-45eb-8bb6-4a812c960ff8" xmlns:ns3="503f19e8-fb23-4d62-82a3-60e3d6d0a640" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75f3ce3d37ca6185cb11faa8fc51dec8" ns2:_="" ns3:_="">
     <xsd:import namespace="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
@@ -16134,27 +16155,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BE6E73-A59E-4928-9786-88BD2CD45A3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a74ba223-5325-45eb-8bb6-4a812c960ff8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CCE0EB1-C7B2-45F1-9A0D-912041F25CA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624164AF-1CAB-4614-92C6-4EA34D2BE398}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16171,29 +16197,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CCE0EB1-C7B2-45F1-9A0D-912041F25CA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BE6E73-A59E-4928-9786-88BD2CD45A3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a74ba223-5325-45eb-8bb6-4a812c960ff8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Vjezbe/PS_predavanja_vjezbe_4.xlsx
+++ b/Vjezbe/PS_predavanja_vjezbe_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Documents\GitHub\Primijenjena-statistika\Vjezbe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edufit-my.sharepoint.com/personal/sara_nuredinovski_edu_fit_ba/Documents/Documents/Github-Infinity/Primijenjena-statistika/Vjezbe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7140AF8F-DF74-4EE1-977C-B38F7DB72EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7140AF8F-DF74-4EE1-977C-B38F7DB72EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E793DA4-E11F-49F4-9CC1-4B1E1E782277}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Podaci" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="17" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -253,22 +253,6 @@
     <t>Normalna srednja vrijednost (saberemo sve I podijelimo sa brojem sabranih)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sredina koja se najcesce pojavljuje u uzorku. Postoji ugradjena funkcija </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MEDIAN</t>
-    </r>
-  </si>
-  <si>
     <t>Rb</t>
   </si>
   <si>
@@ -351,6 +335,22 @@
         <scheme val="minor"/>
       </rPr>
       <t>HARMENIAN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sredina koja se najcesce pojavljuje u uzorku. Postoji ugradjena funkcija </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MODE ili MODE.SNGL</t>
     </r>
   </si>
 </sst>
@@ -691,7 +691,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -851,7 +851,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sr-Latn-RS"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="952428319"/>
@@ -945,7 +945,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sr-Latn-RS"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1019,7 +1019,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1179,7 +1179,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sr-Latn-RS"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="948523887"/>
@@ -1273,7 +1273,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sr-Latn-RS"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1353,7 +1353,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1423,7 +1423,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sr-Latn-RS"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
@@ -1502,7 +1502,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sr-Latn-RS"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
@@ -1539,7 +1539,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1663,7 +1663,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="sr-Latn-RS"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1778,7 +1778,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1831,7 +1831,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sr-Latn-RS"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1928,7 +1928,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1998,7 +1998,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sr-Latn-RS"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
@@ -2035,7 +2035,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2053,7 +2053,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent3"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2201,7 +2201,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="sr-Latn-RS"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2322,7 +2322,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2375,7 +2375,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sr-Latn-RS"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2472,7 +2472,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2542,7 +2542,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sr-Latn-RS"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
@@ -2561,7 +2561,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent3"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2624,7 +2624,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sr-Latn-RS"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="bestFit"/>
@@ -2706,7 +2706,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sr-Latn-RS"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="bestFit"/>
@@ -2725,7 +2725,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2917,7 +2917,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="sr-Latn-RS"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3038,7 +3038,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3091,7 +3091,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sr-Latn-RS"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3187,7 +3187,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3257,7 +3257,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sr-Latn-RS"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
@@ -3294,7 +3294,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3418,7 +3418,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="sr-Latn-RS"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3533,7 +3533,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3586,7 +3586,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sr-Latn-RS"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9330,295 +9330,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10CAF5E8-3A83-436A-A61F-ACCE96A220CF}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A46:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField dataField="1" showAll="0">
-      <items count="88">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="41">
-        <item x="32"/>
-        <item x="35"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="20"/>
-        <item x="36"/>
-        <item x="29"/>
-        <item x="37"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="39"/>
-        <item x="21"/>
-        <item x="1"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="26"/>
-        <item x="38"/>
-        <item x="27"/>
-        <item x="18"/>
-        <item x="5"/>
-        <item x="30"/>
-        <item x="13"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="19"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="33"/>
-        <item x="8"/>
-        <item x="34"/>
-        <item x="7"/>
-        <item x="16"/>
-        <item x="28"/>
-        <item x="2"/>
-        <item x="12"/>
-        <item x="31"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of IDP" fld="0" subtotal="count" baseField="9" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C73722C-A18D-4986-9CE3-9F30E4917EF8}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C73722C-A18D-4986-9CE3-9F30E4917EF8}" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A34:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0">
@@ -9911,8 +9623,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{50721F8B-417E-48E9-9F80-8D8B2D97135F}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{50721F8B-417E-48E9-9F80-8D8B2D97135F}" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A16:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0">
@@ -10189,8 +9901,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{349FA089-AC90-4BA1-98FF-E7A460405C41}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{349FA089-AC90-4BA1-98FF-E7A460405C41}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0">
@@ -10358,6 +10070,294 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10CAF5E8-3A83-436A-A61F-ACCE96A220CF}" name="PivotTable6" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A46:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField dataField="1" showAll="0">
+      <items count="88">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="41">
+        <item x="32"/>
+        <item x="35"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="20"/>
+        <item x="36"/>
+        <item x="29"/>
+        <item x="37"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="39"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="26"/>
+        <item x="38"/>
+        <item x="27"/>
+        <item x="18"/>
+        <item x="5"/>
+        <item x="30"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="33"/>
+        <item x="8"/>
+        <item x="34"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="28"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="31"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of IDP" fld="0" subtotal="count" baseField="9" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -10645,21 +10645,21 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -14013,20 +14013,20 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
@@ -14061,13 +14061,13 @@
         <v>13</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>14.896551724137931</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P2" s="24">
         <v>1</v>
@@ -14125,7 +14125,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="24">
         <v>2</v>
@@ -14183,7 +14183,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>2755.55</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>18</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="P6" s="24">
         <v>5</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="P7" s="24">
         <v>6</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C8" s="34" t="s">
         <v>41</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="P9" s="24">
         <v>8</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="P10" s="24">
         <v>9</v>
       </c>
@@ -14303,9 +14303,9 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -14326,9 +14326,9 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C12" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -14348,7 +14348,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="P13" s="24">
         <v>12</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="P14" s="24">
         <v>13</v>
       </c>
@@ -14378,9 +14378,9 @@
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C15" s="31" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -14414,10 +14414,10 @@
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -14432,20 +14432,20 @@
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
         <v>25</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
         <v>0</v>
       </c>
@@ -14479,10 +14479,10 @@
         <v>4.4827586206896548</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <v>1</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <v>2</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <v>3</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C26" s="5">
         <v>4</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C27" s="5">
         <v>5</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C28" s="5">
         <v>6</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
         <v>7</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C30" s="5">
         <v>8</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C31" s="5">
         <v>9</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
         <v>10</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>11</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>12</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>13</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C36" s="5">
         <v>14</v>
       </c>
@@ -14650,15 +14650,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C38" s="12" t="s">
         <v>30</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B40" s="18" t="s">
         <v>31</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
         <v>34</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>4.3160919540229887</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C42" s="4" t="s">
         <v>35</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
         <v>36</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
         <v>37</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
         <v>38</v>
       </c>
@@ -14809,15 +14809,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G46" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F47" s="23" t="s">
         <v>30</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>375.5</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B49" s="18" t="s">
         <v>39</v>
       </c>
@@ -14857,9 +14857,9 @@
         <v>62.396551724137929</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="16">
         <v>23</v>
@@ -14880,9 +14880,9 @@
         <v>301.5</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="16">
         <v>45</v>
@@ -14902,9 +14902,9 @@
         <v>918</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="16">
         <v>58</v>
@@ -14924,9 +14924,9 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C53" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="16">
         <v>69</v>
@@ -14946,9 +14946,9 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="16">
         <v>80</v>
@@ -14968,17 +14968,17 @@
         <v>680</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G55" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F56" s="23" t="s">
         <v>30</v>
       </c>
@@ -14991,9 +14991,9 @@
         <v>5428.5</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C60" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
@@ -15008,9 +15008,9 @@
       <c r="N60" s="32"/>
       <c r="O60" s="33"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C62" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
@@ -15019,9 +15019,9 @@
       <c r="H62" s="34"/>
       <c r="I62" s="34"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C63" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -15030,9 +15030,9 @@
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C64" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="34"/>
@@ -15069,37 +15069,37 @@
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="88" width="3" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="90" max="174" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="90" max="174" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="17" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K5" s="17">
         <f t="shared" si="0"/>
         <v>21.75</v>
@@ -15376,7 +15376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K6" s="17">
         <f t="shared" si="0"/>
         <v>43.5</v>
@@ -15429,7 +15429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K7" s="17">
         <f t="shared" si="0"/>
         <v>65.25</v>
@@ -15482,7 +15482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K8" s="17">
         <f t="shared" si="0"/>
         <v>78.3</v>
@@ -15535,7 +15535,7 @@
         <v>36.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K9" s="17">
         <f t="shared" si="0"/>
         <v>82.65</v>
@@ -15588,7 +15588,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K10" s="17">
         <f t="shared" si="0"/>
         <v>86.13</v>
@@ -15641,7 +15641,7 @@
         <v>64.660000000000011</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="17" t="s">
@@ -15678,7 +15678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K12" s="3"/>
       <c r="L12" s="17" t="s">
         <v>21</v>
@@ -15728,7 +15728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K13" s="3"/>
       <c r="L13" s="17" t="s">
         <v>22</v>
@@ -15778,7 +15778,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -15823,7 +15823,7 @@
       <c r="AJ17" s="38"/>
       <c r="AK17" s="38"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -15839,14 +15839,14 @@
         <v>11</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
       <c r="O19" s="33"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -15854,20 +15854,20 @@
         <v>87</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="33"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="K21" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>2</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
@@ -15953,6 +15953,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="503f19e8-fb23-4d62-82a3-60e3d6d0a640" xsi:nil="true"/>
@@ -15961,15 +15970,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16156,6 +16156,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CCE0EB1-C7B2-45F1-9A0D-912041F25CA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BE6E73-A59E-4928-9786-88BD2CD45A3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -16168,14 +16176,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="503f19e8-fb23-4d62-82a3-60e3d6d0a640"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CCE0EB1-C7B2-45F1-9A0D-912041F25CA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
